--- a/Defect Report.xlsx
+++ b/Defect Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patel\Desktop\HTML_JS\Project 2\TeamProject\project-2-SuperStocks-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292FE99B-326E-49A1-B9CD-B48886744CFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7962F237-BE71-4AAE-A8D4-57923F065471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Defect Report.xlsx
+++ b/Defect Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patel\Desktop\HTML_JS\Project 2\TeamProject\project-2-SuperStocks-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7962F237-BE71-4AAE-A8D4-57923F065471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80C6E0E-1A64-4B61-8870-6D35D805E839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Defect ID</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Status (Open/Closed)</t>
-  </si>
-  <si>
-    <t>D-1</t>
   </si>
   <si>
     <t>User should be able to Register as a User.</t>
@@ -152,6 +149,34 @@
   </si>
   <si>
     <t>UserTest</t>
+  </si>
+  <si>
+    <t>When Current User successfully LoggedIn, they will be directed to landing page.</t>
+  </si>
+  <si>
+    <t>User should be able to LogOut.</t>
+  </si>
+  <si>
+    <t>1. Click the "Log Out" button.</t>
+  </si>
+  <si>
+    <t>When LoggedIn user click LogOut button, they will be directed to Home page.</t>
+  </si>
+  <si>
+    <t>Display Dashboard.</t>
+  </si>
+  <si>
+    <t>Need alert for invalid Input.</t>
+  </si>
+  <si>
+    <t>User should be able to Update Profile.</t>
+  </si>
+  <si>
+    <t>1. Successful Log In.
+2. Click Profile</t>
+  </si>
+  <si>
+    <t>Display LogOut page.</t>
   </si>
 </sst>
 </file>
@@ -323,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -375,6 +400,9 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,7 +621,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -664,27 +692,27 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="I2" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="15"/>
@@ -732,19 +760,25 @@
     <row r="4" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -787,11 +821,15 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -839,16 +877,7 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -919,14 +948,21 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+    <row r="11" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -945,14 +981,13 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -971,14 +1006,13 @@
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -1023,14 +1057,22 @@
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1158,28 +1200,52 @@
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
@@ -1194,6 +1260,34 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1219,27 +1313,27 @@
     <row r="2" spans="2:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="20"/>
     </row>
@@ -1247,7 +1341,7 @@
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="23"/>
     </row>
@@ -1255,17 +1349,17 @@
       <c r="B6" s="21"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="21"/>
       <c r="C7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="E7" s="27"/>
     </row>
@@ -1273,7 +1367,7 @@
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="23"/>
     </row>
@@ -1281,17 +1375,17 @@
       <c r="B9" s="21"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="26"/>
     </row>
     <row r="10" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
       <c r="C10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>36</v>
       </c>
       <c r="E10" s="23"/>
     </row>
@@ -1299,7 +1393,7 @@
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="23"/>
     </row>
@@ -1307,19 +1401,19 @@
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="26"/>
     </row>
     <row r="13" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="20"/>
     </row>
@@ -1327,7 +1421,7 @@
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="23"/>
     </row>
@@ -1335,7 +1429,7 @@
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="28"/>
     </row>

--- a/Defect Report.xlsx
+++ b/Defect Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patel\Desktop\HTML_JS\Project 2\TeamProject\project-2-SuperStocks-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80C6E0E-1A64-4B61-8870-6D35D805E839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3714E4C-43EC-43A2-99F9-D4FD25581EA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -623,8 +623,8 @@
   </sheetPr>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
